--- a/artfynd/A 38342-2020.xlsx
+++ b/artfynd/A 38342-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +790,558 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112394252</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Paurankivägen, T lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>749928</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7535991</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112394378</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Paurankivägen, T lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>749921</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7535985</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112394151</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89820</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>658</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Paurankivägen, T lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>749936</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7535990</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112457286</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89820</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>658</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Paurankivaravägen, T lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>749868</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7536000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Stefan Andersson, per-erik mukka, Christina Boyd</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112438309</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90434</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4745</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tallriska</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lactarius musteus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Paurankivaravägen, T lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>749892</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7535980</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Stefan Andersson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Stefan Andersson, Christina Boyd, per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 38342-2020.xlsx
+++ b/artfynd/A 38342-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,6 +1342,536 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112501198</v>
+      </c>
+      <c r="B8" t="n">
+        <v>89834</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>658</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>749922</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7535992</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>per-erik mukka, Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112501052</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>749927</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7535984</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>per-erik mukka, Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112501187</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89903</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ostticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Skeletocutis odora</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Sacc.) Ginns</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>749922</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7535992</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>per-erik mukka, Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112501192</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>749922</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7535992</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>per-erik mukka, Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112501206</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>749922</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7535992</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>per-erik mukka, Anne Järvinen</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 38342-2020.xlsx
+++ b/artfynd/A 38342-2020.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112394252</v>
+        <v>112394378</v>
       </c>
       <c r="B3" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>749928</v>
+        <v>749921</v>
       </c>
       <c r="R3" t="n">
-        <v>7535991</v>
+        <v>7535985</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112394378</v>
+        <v>112394252</v>
       </c>
       <c r="B4" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>749921</v>
+        <v>749928</v>
       </c>
       <c r="R4" t="n">
-        <v>7535985</v>
+        <v>7535991</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1015,7 +1015,7 @@
         <v>112394151</v>
       </c>
       <c r="B5" t="n">
-        <v>89820</v>
+        <v>89834</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112457286</v>
+        <v>112438309</v>
       </c>
       <c r="B6" t="n">
-        <v>89820</v>
+        <v>90448</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1138,21 +1138,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>4745</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>749868</v>
+        <v>749892</v>
       </c>
       <c r="R6" t="n">
-        <v>7536000</v>
+        <v>7535980</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1198,9 +1198,19 @@
           <t>2023-10-01</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11:54</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1221,17 +1231,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Stefan Andersson, per-erik mukka, Christina Boyd</t>
+          <t>Stefan Andersson, Christina Boyd, per-erik mukka</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112438309</v>
+        <v>112457286</v>
       </c>
       <c r="B7" t="n">
-        <v>90434</v>
+        <v>89834</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1244,21 +1254,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4745</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1271,13 +1281,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>749892</v>
+        <v>749868</v>
       </c>
       <c r="R7" t="n">
-        <v>7535980</v>
+        <v>7536000</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1304,19 +1314,9 @@
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>11:54</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>11:54</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Stefan Andersson, Christina Boyd, per-erik mukka</t>
+          <t>Stefan Andersson, per-erik mukka, Christina Boyd</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112501198</v>
+        <v>112501187</v>
       </c>
       <c r="B8" t="n">
-        <v>89834</v>
+        <v>89903</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>1506</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112501052</v>
+        <v>112501192</v>
       </c>
       <c r="B9" t="n">
         <v>89571</v>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>749927</v>
+        <v>749922</v>
       </c>
       <c r="R9" t="n">
-        <v>7535984</v>
+        <v>7535992</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112501187</v>
+        <v>112501206</v>
       </c>
       <c r="B10" t="n">
-        <v>89903</v>
+        <v>89553</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1568,25 +1568,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1506</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112501192</v>
+        <v>112501052</v>
       </c>
       <c r="B11" t="n">
         <v>89571</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>749922</v>
+        <v>749927</v>
       </c>
       <c r="R11" t="n">
-        <v>7535992</v>
+        <v>7535984</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112501206</v>
+        <v>112501198</v>
       </c>
       <c r="B12" t="n">
-        <v>89553</v>
+        <v>89834</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1784,21 +1784,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>

--- a/artfynd/A 38342-2020.xlsx
+++ b/artfynd/A 38342-2020.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112394378</v>
+        <v>112394151</v>
       </c>
       <c r="B3" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>749921</v>
+        <v>749936</v>
       </c>
       <c r="R3" t="n">
-        <v>7535985</v>
+        <v>7535990</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112394252</v>
+        <v>112394378</v>
       </c>
       <c r="B4" t="n">
         <v>89571</v>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>749928</v>
+        <v>749921</v>
       </c>
       <c r="R4" t="n">
-        <v>7535991</v>
+        <v>7535985</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112394151</v>
+        <v>112394252</v>
       </c>
       <c r="B5" t="n">
-        <v>89834</v>
+        <v>89571</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,21 +1028,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>749936</v>
+        <v>749928</v>
       </c>
       <c r="R5" t="n">
-        <v>7535990</v>
+        <v>7535991</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112501187</v>
+        <v>112501192</v>
       </c>
       <c r="B8" t="n">
-        <v>89903</v>
+        <v>89571</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1506</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112501192</v>
+        <v>112501052</v>
       </c>
       <c r="B9" t="n">
         <v>89571</v>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>749922</v>
+        <v>749927</v>
       </c>
       <c r="R9" t="n">
-        <v>7535992</v>
+        <v>7535984</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112501206</v>
+        <v>112501187</v>
       </c>
       <c r="B10" t="n">
-        <v>89553</v>
+        <v>89903</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1568,25 +1568,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>1506</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112501052</v>
+        <v>112501198</v>
       </c>
       <c r="B11" t="n">
-        <v>89571</v>
+        <v>89834</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1678,21 +1678,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>749927</v>
+        <v>749922</v>
       </c>
       <c r="R11" t="n">
-        <v>7535984</v>
+        <v>7535992</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112501198</v>
+        <v>112501206</v>
       </c>
       <c r="B12" t="n">
-        <v>89834</v>
+        <v>89553</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1784,21 +1784,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
